--- a/210129_Greenhouse_results.xlsx
+++ b/210129_Greenhouse_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lannysadikin/Documents/M1 UPV/Biodiversity conservation/Greenhouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20BA7D-057E-EA47-8C80-2276C6170FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E88E983-1C0C-F045-B6D9-F9E2AA3A1F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
     <t>Triticum</t>
   </si>
   <si>
-    <t xml:space="preserve">Ave </t>
+    <t>Avena</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
   <dimension ref="A1:Z266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -853,7 +853,7 @@
       <c r="Z6" s="15"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="9">
@@ -1109,7 +1109,7 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="9">
@@ -1381,7 +1381,7 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="9">
@@ -1657,7 +1657,7 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="9">
@@ -1963,7 +1963,7 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="9">
@@ -2245,7 +2245,7 @@
       <c r="Z36" s="15"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="9">
@@ -2501,7 +2501,7 @@
       <c r="Z42" s="15"/>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="9">
@@ -2773,7 +2773,7 @@
       <c r="Z48" s="15"/>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="9">
@@ -3049,7 +3049,7 @@
       <c r="Z54" s="15"/>
     </row>
     <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B55" s="9">
@@ -3355,7 +3355,7 @@
       <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="9">
@@ -3637,7 +3637,7 @@
       <c r="Z66" s="13"/>
     </row>
     <row r="67" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B67" s="9">
@@ -3893,7 +3893,7 @@
       <c r="Z72" s="13"/>
     </row>
     <row r="73" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B73" s="9">
@@ -4165,7 +4165,7 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B79" s="9">
@@ -4441,7 +4441,7 @@
       <c r="Z84" s="13"/>
     </row>
     <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B85" s="9">
@@ -4703,7 +4703,7 @@
       <c r="N90" s="13"/>
     </row>
     <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="9">
@@ -4909,7 +4909,7 @@
       <c r="N96" s="13"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="9">
@@ -5093,7 +5093,7 @@
       <c r="N102" s="13"/>
     </row>
     <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B103" s="9">
@@ -5285,7 +5285,7 @@
       <c r="N108" s="13"/>
     </row>
     <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B109" s="9">
@@ -5479,7 +5479,7 @@
       <c r="N114" s="13"/>
     </row>
     <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="9">
@@ -5691,7 +5691,7 @@
       <c r="N120" s="13"/>
     </row>
     <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B121" s="9">
